--- a/Dataset Excel/Communique 13.xlsx
+++ b/Dataset Excel/Communique 13.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5630BD-1317-46FF-89C5-214999AB5D45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElhadjMalangDIEDHIOU\Desktop\Workspace\data.covid19sn.com\Dataset Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB910D0-8C4F-497C-B4ED-9A40B2536E69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D63AA42-D37C-4EEA-9A52-1BB2D5E05BF3}"/>
   </bookViews>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="51">
   <si>
     <t>ID Patient</t>
   </si>
@@ -169,9 +174,6 @@
     <t>Sous Traitement</t>
   </si>
   <si>
-    <t>CMIF</t>
-  </si>
-  <si>
     <t>Centre de Sante Darou Marnane</t>
   </si>
   <si>
@@ -188,6 +190,9 @@
   </si>
   <si>
     <t>14/03/2020</t>
+  </si>
+  <si>
+    <t>CTMIT Fann</t>
   </si>
 </sst>
 </file>
@@ -795,9 +800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3234E3B-07AA-4C72-92A4-74363AA616A4}">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,10 +869,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="str">
         <f>'[1]Communiques Officiels Ministere'!$C$3</f>
@@ -904,15 +909,15 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="str">
         <f>'[1]Communiques Officiels Ministere'!$C$5</f>
@@ -949,15 +954,15 @@
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="str">
         <f>'[2]Communiques Officiels Ministere'!$C$5</f>
@@ -991,15 +996,15 @@
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$5</f>
@@ -1014,6 +1019,9 @@
       <c r="H5" t="s">
         <v>39</v>
       </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
@@ -1024,15 +1032,15 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$6</f>
@@ -1057,15 +1065,15 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$7</f>
@@ -1090,15 +1098,15 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$8</f>
@@ -1123,15 +1131,15 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="str">
         <f>'[3]Communiques Officiels Ministere'!$C$9</f>
@@ -1156,15 +1164,15 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$10</f>
@@ -1189,15 +1197,15 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$11</f>
@@ -1222,15 +1230,15 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$12</f>
@@ -1255,15 +1263,15 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$13</f>
@@ -1288,15 +1296,15 @@
         <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$14</f>
@@ -1321,15 +1329,15 @@
         <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$15</f>
@@ -1354,15 +1362,15 @@
         <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$16</f>
@@ -1387,15 +1395,15 @@
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$17</f>
@@ -1420,15 +1428,15 @@
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$18</f>
@@ -1453,15 +1461,15 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$19</f>
@@ -1486,15 +1494,15 @@
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="str">
         <f>'[4]Communiques Officiels Ministere'!$C$20</f>
@@ -1519,15 +1527,15 @@
         <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ref="C21:C23" si="0">UPPER("C"&amp; TEXT(RIGHT($B21,2), "000") &amp; LEFT($H21, 3) &amp; LEFT($J21, 1) &amp; ROW()-1)</f>
@@ -1557,13 +1565,16 @@
       <c r="M21" t="s">
         <v>23</v>
       </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1582,7 +1593,7 @@
         <v>44107</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
         <v>33</v>
@@ -1599,23 +1610,26 @@
       <c r="M22" t="s">
         <v>23</v>
       </c>
+      <c r="N22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>C013FRAM22</v>
+        <v>C013FRAF22</v>
       </c>
       <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
         <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1630,7 +1644,7 @@
         <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -1640,6 +1654,9 @@
       </c>
       <c r="M23" t="s">
         <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1755,21 +1772,14 @@
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{B6A4068D-F80B-45C9-9915-E17AEAB0B9E2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{07320936-E895-4856-B798-12E03CD9330E}">
           <x14:formula1>
             <xm:f>'Data Validation'!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>I1 I21:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{1D3757B8-EBA6-41FE-B843-497EE4EC8CE6}">
-          <x14:formula1>
-            <xm:f>'Data Validation'!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>J1 J21:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9F355BC1-CADA-43D3-9344-BAD4DA5DBA18}">
           <x14:formula1>
@@ -1795,23 +1805,17 @@
           </x14:formula1>
           <xm:sqref>I5:I9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7C6A1664-8C97-458F-B8F3-172FE066E0E7}">
-          <x14:formula1>
-            <xm:f>'https://d.docs.live.net/720d2bd4b83cf84d/Covid19sn/Datasets/Communiques Ministere/[Communique 11.xlsx]Data Validation'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J5:J9</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{1D90D9EC-286F-4CBE-8DCB-4941F4412E54}">
           <x14:formula1>
             <xm:f>'https://d.docs.live.net/720d2bd4b83cf84d/Covid19sn/Datasets/Communiques Ministere/[Communique 10.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:J4</xm:sqref>
+          <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{33D97AA1-2516-4963-9F49-20459DF780FB}">
           <x14:formula1>
             <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 5.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:J3</xm:sqref>
+          <xm:sqref>I2:I3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FEFD11AD-24E6-46A8-9427-72ED646501A7}">
           <x14:formula1>
@@ -1819,17 +1823,17 @@
           </x14:formula1>
           <xm:sqref>L2:L20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{5DACCF5F-72CB-48D9-9659-612709D0C2E4}">
-          <x14:formula1>
-            <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 12.xlsx]Data Validation'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J10:J20</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{9AA37550-5BB4-4527-966A-0077B74AB9D1}">
           <x14:formula1>
             <xm:f>'C:\Users\ElhadjMalangDIEDHIOU\OneDrive\Covid19sn\Datasets\Communiques Ministere\[Communique 12.xlsx]Data Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I10:I20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2EEF2E6E-30CF-4DCB-8CC4-1FFA15B2B074}">
+          <x14:formula1>
+            <xm:f>'Data Validation'!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1951,4 +1955,193 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038F85C4C18602F4B945AA8D4F86956EE" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5510518b82f36aedba711892c1b561f3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="071c009a-ce67-49e4-abae-6a46c995900d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86b4007d165b35a68039d453d7963aea" ns2:_="">
+    <xsd:import namespace="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="071c009a-ce67-49e4-abae-6a46c995900d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A019A2-47A0-4577-BE43-615BDE6011DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FFDB585-1A1B-4169-A3D0-D3E5817A7158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06D09184-A6AE-4410-B40C-1FEB4D2202A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>